--- a/Paper/Supplemental File 1_v2.xlsx
+++ b/Paper/Supplemental File 1_v2.xlsx
@@ -19634,8 +19634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N707"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D232" sqref="D232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Paper/Supplemental File 1_v2.xlsx
+++ b/Paper/Supplemental File 1_v2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9773" uniqueCount="5981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9777" uniqueCount="5983">
   <si>
     <t>ID</t>
   </si>
@@ -19144,6 +19144,12 @@
       </rPr>
       <t>O</t>
     </r>
+  </si>
+  <si>
+    <t>Antonie van Leeuwenhoek</t>
+  </si>
+  <si>
+    <t>Identification of a gene involved in the biosynthesis pathway of the terminal sugar of the archaellin N-linked tetrasaccharide in Methanococcus maripaludis</t>
   </si>
 </sst>
 </file>
@@ -19634,8 +19640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N707"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D232" sqref="D232"/>
+    <sheetView tabSelected="1" topLeftCell="A263" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A287" sqref="A287:XFD287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24460,8 +24466,12 @@
       <c r="L119" s="14" t="s">
         <v>5850</v>
       </c>
-      <c r="M119" s="14"/>
-      <c r="N119" s="14"/>
+      <c r="M119" s="14">
+        <v>83</v>
+      </c>
+      <c r="N119" s="14" t="s">
+        <v>2855</v>
+      </c>
     </row>
     <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
@@ -75715,17 +75725,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59:I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="4" max="4" width="49" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -77137,6 +77149,23 @@
       </c>
       <c r="E83" s="6" t="s">
         <v>3047</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="6">
+        <v>83</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>2936</v>
+      </c>
+      <c r="C84" s="6">
+        <v>2016</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>5981</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>5982</v>
       </c>
     </row>
   </sheetData>
@@ -77844,7 +77873,7 @@
       <c r="C37" s="21"/>
       <c r="D37" s="21"/>
     </row>
-    <row r="38" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>5895</v>
       </c>
@@ -77858,7 +77887,7 @@
         <v>8.1863206581801807E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>5896</v>
       </c>
@@ -77872,7 +77901,7 @@
         <v>4.5310581380069688E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
         <v>5897</v>
       </c>
@@ -77886,7 +77915,7 @@
         <v>4.8628671464695592E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
         <v>5898</v>
       </c>
@@ -77900,7 +77929,7 @@
         <v>1.4824917721706644E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>5899</v>
       </c>
@@ -77914,7 +77943,7 @@
         <v>1.3285152513550853E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>5900</v>
       </c>
